--- a/depuradorVerbos.xlsx
+++ b/depuradorVerbos.xlsx
@@ -98,6 +98,9 @@
     <t>Control de renta de autos</t>
   </si>
   <si>
+    <t>Costo extra depende el transporte</t>
+  </si>
+  <si>
     <t>Cotización</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>Entrega</t>
   </si>
   <si>
+    <t>Entrega del auto al cliente</t>
+  </si>
+  <si>
     <t>Imprimir reporte de ventas anual</t>
   </si>
   <si>
@@ -149,10 +155,16 @@
     <t>Pago por tarjeta de débito</t>
   </si>
   <si>
+    <t>Pasajeros</t>
+  </si>
+  <si>
     <t>Registrarse en el sistema</t>
   </si>
   <si>
     <t>Renta de vehículos</t>
+  </si>
+  <si>
+    <t>Seguro de vehículo obligatorio</t>
   </si>
   <si>
     <t>Servicio de la empresa</t>
@@ -314,22 +326,7 @@
   </si>
   <si>
     <r>
-      <t>Entrega del auto</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Raleway"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> al cliente</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Pasajero</t>
+      <t>Registrar vehículo</t>
     </r>
     <r>
       <rPr>
@@ -341,21 +338,6 @@
       </rPr>
       <t>s</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Registrar vehículo</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Raleway"/>
-        <family val="2"/>
-      </rPr>
-      <t>s</t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -368,21 +350,6 @@
   </si>
   <si>
     <t>Rentar un vehículo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Seguro de vehículo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Raleway"/>
-        <family val="2"/>
-      </rPr>
-      <t>obligatorio</t>
-    </r>
   </si>
   <si>
     <r>
@@ -397,21 +364,6 @@
         <family val="2"/>
       </rPr>
       <t>es</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Costo extra</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Raleway"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> depende el transporte</t>
     </r>
   </si>
   <si>
@@ -531,13 +483,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -937,9 +886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+      <selection pane="topRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,31 +906,31 @@
       <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>58</v>
+      <c r="A2" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1007,7 +956,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1033,7 +982,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1053,13 +1002,13 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>54</v>
+      <c r="A5" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1079,13 +1028,13 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>55</v>
+      <c r="A6" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1110,8 +1059,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>59</v>
+      <c r="A7" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1128,7 +1077,7 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1136,8 +1085,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>60</v>
+      <c r="A8" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1162,8 +1111,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>51</v>
+      <c r="A9" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1183,12 +1132,12 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
@@ -1209,12 +1158,12 @@
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -1235,12 +1184,12 @@
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
@@ -1266,7 +1215,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
@@ -1292,8 +1241,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>61</v>
+      <c r="A14" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1345,7 +1294,7 @@
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1370,8 +1319,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>62</v>
+      <c r="A17" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1396,10 +1345,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
@@ -1422,8 +1371,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>25</v>
+      <c r="A19" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1448,8 +1397,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>26</v>
+      <c r="A20" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1475,7 +1424,7 @@
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -1500,8 +1449,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>28</v>
+      <c r="A22" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1527,7 +1476,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -1552,7 +1501,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B24" t="s">
@@ -1578,8 +1527,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>50</v>
+      <c r="A25" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1604,7 +1553,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B26" t="s">
@@ -1630,8 +1579,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>29</v>
+      <c r="A27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1656,8 +1605,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>30</v>
+      <c r="A28" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1682,8 +1631,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>31</v>
+      <c r="A29" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1708,8 +1657,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>32</v>
+      <c r="A30" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1735,7 +1684,7 @@
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1761,7 +1710,7 @@
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1787,7 +1736,7 @@
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1812,8 +1761,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>36</v>
+      <c r="A34" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1838,8 +1787,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>37</v>
+      <c r="A35" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1865,7 +1814,7 @@
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1891,7 +1840,7 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1917,7 +1866,7 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1943,7 +1892,7 @@
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -1968,8 +1917,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>65</v>
+      <c r="A40" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1994,8 +1943,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>41</v>
+      <c r="A41" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -2020,8 +1969,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>56</v>
+      <c r="A42" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -2046,8 +1995,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>42</v>
+      <c r="A43" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -2073,7 +2022,7 @@
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -2099,7 +2048,7 @@
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -2125,7 +2074,7 @@
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -2176,8 +2125,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>44</v>
+      <c r="A48" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -2202,8 +2151,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>45</v>
+      <c r="A49" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -2228,8 +2177,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>46</v>
+      <c r="A50" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -2254,8 +2203,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>47</v>
+      <c r="A51" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -2280,8 +2229,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>68</v>
+      <c r="A52" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -2302,12 +2251,12 @@
         <v>11</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -2332,8 +2281,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>49</v>
+      <c r="A54" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
